--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM\SpaceRDL\RDLAPI\RDLAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_practise\DaSiShang\RDLAPI-all\RDLAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFF17D-F1F1-46F7-815A-639A224FA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AF9A8-8F0C-4DFC-92D2-28DE262EB999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>设置初始工作模式字为速率阻尼；</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,26 +36,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陀螺数据采集。功能描述：陀螺数据采集。输入：串口操作地址。输出：加电状态、角速度模拟量。陀螺数据采集具体数据传输格式见陀螺取数指令格式表和陀螺测量数据格式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太阳敏感器数据采集。功能描述：太阳敏感器数据采集。输入：AD采集寄存器地址。输出：部件加电状态、太阳可见标志及测量角度。参照太阳敏感器数据采集信息表和太阳敏感器角度处理表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制量计算。功能描述：根据卫星当前姿态及目标姿态计算控制量。输入：卫星当前三轴姿态角及角速度，目标角度及角速度（三轴角度偏置量及角速度偏置量）。输出：三轴控制量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陀螺控制输出。功能描述：三浮陀螺控制输出。调用条件：上电初始化时调用。输入：陀螺控制开关寄存器地址。输出：陀螺控制开关信号。参照陀螺控制指令表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳敏感器控制输出。功能描述：太阳敏感器开关控制。调用条件：上电初始化、或太阳敏感器不可见故障时调用。输入：太阳敏感器开关控制寄存器地址。输出：太阳敏感器开关控制信号。具体操作见太阳敏感器开关控制信息表。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,23 +92,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetData JET {JetPowerState} ReqCapByTable Thruster_Data_Table;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {attiang, attirate, currentmode} {deltG[9], AttigDss[2], viewCode} ReqCapByTable B3Table;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Compute {pulseWidth} {attiang, attirate, attiangT, attirateT} ReqCapByTable B4Table;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {dssPower, jetPower} {viewCode} ReqCapByTable F1Table;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {jetPower} {jetT} ReqCapByTable FaultTable1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,30 +164,6 @@
     <t>ProTM</t>
   </si>
   <si>
-    <t>GetData DSS {dssPower, viewCode, AttigDss[2]} ReqCapByTable DSS_AcquisitionTable;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推力器数据采集。功能描述：推力器数据采集。输入：AD采集寄存器地址。输出：推力器加电状态。参照推力器数据采集信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姿态确定。功能描述：卫星三轴姿态确定。输入：陀螺测量角速度，太阳敏感器采集的姿态角度，太阳可见标志。输出：三轴姿态角度、三轴角速度，工作模式字。算法参照算法表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推力器输出。功能描述：三轴控制量分配给各推力器。输入：三轴控制量。输出：各推力器输出。参照推力器输出控制操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥测处理。功能描述：打包软件运行状态，通过串口发送给数管。输入：卫星当前工作模式字，当前角度及当前速度，串口通信地址。输出：无。遥测数据格式参照遥测数据格式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控处理。功能描述：通过串口接收地面指令，进行指令校验，设置卫星工作模式字。输入：遥控接收串口地址。输出：下一周期工作模式字。 参照遥控指令格式信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太阳搜索不成功故障诊断。功能描述：太阳搜索不成功后切换备份太阳敏感器。输入：太阳可见标志。输出：太阳敏感器加断电开关信号，推力器开关信号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,11 +172,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetData Gyro3F {deltG[9], GyroPowerState[9]} ReqCapByTable Gyro_DataFormat_Tables;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendData JET {pulseWidth} ReqCapByTable ThrusterOutputControlTable;</t>
+    <t>GetData Gyro3F {deltG[9], GyroPowerState[9]} ReqCapByTable Gyro_TransTable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData DSS {dssPower, viewCode, AttigDss[2]} ReqCapByTable Dss_TransTable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺数据采集。功能描述：陀螺数据采集。输入：串口操作地址。输出：加电状态、角速度模拟量。陀螺数据采集具体数据传输格式见陀螺数据转换表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳敏感器数据采集。功能描述：太阳敏感器数据采集。输入：AD采集寄存器地址。输出：部件加电状态、太阳可见标志及测量角度。参照太阳敏感器数据转换表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控处理。功能描述：通过串口接收地面指令，进行指令校验，设置卫星工作模式字。输入：遥控接收串口地址。输出：下一周期工作模式字。 参照遥控数据管理计算机数据格式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData JET {JetPowerState} ReqCapByTable jet_proTable2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推力器数据采集。功能描述：推力器数据采集。输入：AD采集寄存器地址。输出：推力器加电状态。参照推力器电源状态协议表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {dssPower, jetPower} {viewCode}；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {jetPower} {jetT};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺控制输出。功能描述：三浮陀螺控制输出。调用条件：上电初始化时调用。输入：陀螺控制开关寄存器地址。输出：陀螺控制开关信号。参照陀螺加断电指令表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendData Gyro3F {gyroPower} ReqCapByTable gyro_proTable1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳敏感器控制输出。功能描述：太阳敏感器开关控制。调用条件：上电初始化、或太阳敏感器不可见故障时调用。输入：太阳敏感器开关控制寄存器地址。输出：太阳敏感器开关控制信号。具体操作见太阳敏感器输出使能协议表。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,12 +232,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DSS {dssPower} ReqCapByTable DSS_ControlTable;</t>
+      <t>DSS {dssPower} ReqCapByTable dss_proTable1;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SendData Gyro3F {gyroPower};</t>
+    <t>推力器输出。功能描述：三轴控制量分配给各推力器。输入：三轴控制量。输出：各推力器输出。参照推力器输出数据协议表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendData JET {pulseWidth} ReqCapByTable jet_proTable1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥测处理。功能描述：打包软件运行状态，通过串口发送给数管。输入：卫星当前工作模式字，当前角度及当前速度，串口通信地址。输出：无。遥测数据格式参照遥测数据管理计算机数据格式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姿态确定。功能描述：卫星三轴姿态确定。输入：陀螺测量角速度，太阳敏感器采集的姿态角度，太阳可见标志。输出：三轴姿态角度、三轴角速度，工作模式字。参照“陀螺数据剔野处理”算法表，“计算三轴角速度、计算陀螺角速度”算法表，“确定卫星姿态角度和角速度”算法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {attiang, attirate, currentmode} {deltG[9], AttigDss[2], viewCode} ReqCapByTable {B1Table,B2Table,B3Table};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制量计算。功能描述：根据卫星当前姿态及目标姿态计算控制量。输入：卫星当前三轴姿态角及角速度，目标角度及角速度（三轴角度偏置量及角速度偏置量）。输出：三轴控制量。参照"三轴姿态角限幅处理，计算得到三轴控制量"算法表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,326 +617,327 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="95.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -945,43 +954,43 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="65.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_practise\DaSiShang\RDLAPI-all\RDLAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM\SpaceRDL\RDLAPI\RDLAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AF9A8-8F0C-4DFC-92D2-28DE262EB999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA14522-5423-47F3-AD1A-A1C9E938AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="1080" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>设置初始工作模式字为速率阻尼；</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,22 +77,6 @@
   </si>
   <si>
     <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set currentmode RDSM;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Init timer32 1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProTC OBDH {currentmode} ReqCapByTable ProTable_TC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {pulseWidth} {attiang, attirate, attiangT, attirateT} ReqCapByTable B4Table;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProTM OBDH {currentmode, attiang, attirate} ReqCapByTable ProTable_TM;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>revised pattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,11 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetData Gyro3F {deltG[9], GyroPowerState[9]} ReqCapByTable Gyro_TransTable;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetData DSS {dssPower, viewCode, AttigDss[2]} ReqCapByTable Dss_TransTable;</t>
+    <t>遥控处理。功能描述：通过串口接收地面指令，进行指令校验，设置卫星工作模式字。输入：遥控接收串口地址。输出：下一周期工作模式字。 参照遥控数据管理计算机数据格式表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,23 +164,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控处理。功能描述：通过串口接收地面指令，进行指令校验，设置卫星工作模式字。输入：遥控接收串口地址。输出：下一周期工作模式字。 参照遥控数据管理计算机数据格式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetData JET {JetPowerState} ReqCapByTable jet_proTable2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推力器数据采集。功能描述：推力器数据采集。输入：AD采集寄存器地址。输出：推力器加电状态。参照推力器电源状态协议表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Compute {dssPower, jetPower} {viewCode}；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {jetPower} {jetT};</t>
+    <t>姿态确定。功能描述：卫星三轴姿态确定。输入：陀螺测量角速度，太阳敏感器采集的姿态角度，太阳可见标志。输出：三轴姿态角度、三轴角速度，工作模式字。参照“陀螺数据剔野处理”算法表，“计算三轴角速度、计算陀螺角速度”算法表，“确定卫星姿态角度和角速度”算法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制量计算。功能描述：根据卫星当前姿态及目标姿态计算控制量。输入：卫星当前三轴姿态角及角速度，目标角度及角速度（三轴角度偏置量及角速度偏置量）。输出：三轴控制量。参照"三轴姿态角限幅处理，计算得到三轴控制量"算法表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,11 +180,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SendData Gyro3F {gyroPower} ReqCapByTable gyro_proTable1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太阳敏感器控制输出。功能描述：太阳敏感器开关控制。调用条件：上电初始化、或太阳敏感器不可见故障时调用。输入：太阳敏感器开关控制寄存器地址。输出：太阳敏感器开关控制信号。具体操作见太阳敏感器输出使能协议表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推力器输出。功能描述：三轴控制量分配给各推力器。输入：三轴控制量。输出：各推力器输出。参照推力器输出数据协议表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥测处理。功能描述：打包软件运行状态，通过串口发送给数管。输入：卫星当前工作模式字，当前角度及当前速度，串口通信地址。输出：无。遥测数据格式参照遥测数据管理计算机数据格式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set currentmode RDSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Init timer32 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProTC OBDH {currentmode} ReqCapByTable ProTable_TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData Gyro3F {deltG[9], GyroPowerState[9]} ReqCapByTable Gyro_TransTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData DSS {dssPower, viewCode, AttigDss[2]} ReqCapByTable Dss_TransTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData JET {JetPowerState} ReqCapByTable jet_proTable2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {attiang, attirate, currentmode} {deltG[9], AttigDss[2], viewCode} ReqCapByTable {B1Table,B2Table,B3Table}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {pulseWidth} {attiang, attirate, attiangT, attirateT} ReqCapByTable B4Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {dssPower, jetPower} {viewCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute {jetPower} {jetT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendData Gyro3F {gyroPower} ReqCapByTable gyro_proTable1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,36 +252,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DSS {dssPower} ReqCapByTable dss_proTable1;</t>
+      <t>DSS {dssPower} ReqCapByTable dss_proTable1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推力器输出。功能描述：三轴控制量分配给各推力器。输入：三轴控制量。输出：各推力器输出。参照推力器输出数据协议表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendData JET {pulseWidth} ReqCapByTable jet_proTable1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥测处理。功能描述：打包软件运行状态，通过串口发送给数管。输入：卫星当前工作模式字，当前角度及当前速度，串口通信地址。输出：无。遥测数据格式参照遥测数据管理计算机数据格式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姿态确定。功能描述：卫星三轴姿态确定。输入：陀螺测量角速度，太阳敏感器采集的姿态角度，太阳可见标志。输出：三轴姿态角度、三轴角速度，工作模式字。参照“陀螺数据剔野处理”算法表，“计算三轴角速度、计算陀螺角速度”算法表，“确定卫星姿态角度和角速度”算法表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compute {attiang, attirate, currentmode} {deltG[9], AttigDss[2], viewCode} ReqCapByTable {B1Table,B2Table,B3Table};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制量计算。功能描述：根据卫星当前姿态及目标姿态计算控制量。输入：卫星当前三轴姿态角及角速度，目标角度及角速度（三轴角度偏置量及角速度偏置量）。输出：三轴控制量。参照"三轴姿态角限幅处理，计算得到三轴控制量"算法表</t>
+    <t>SendData JET {pulseWidth} ReqCapByTable jet_proTable1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProTM OBDH {currentmode, attiang, attirate} ReqCapByTable ProTable_TM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,18 +621,17 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="95.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -639,13 +642,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -670,274 +673,274 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -954,14 +957,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" customWidth="1"/>
+    <col min="1" max="1" width="65.5" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -980,17 +983,17 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM\SpaceRDL\RDLAPI\RDLAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM-code\spaceRDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA14522-5423-47F3-AD1A-A1C9E938AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE58EA3-E4F1-438F-969A-B69328F1ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1080" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="525" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
